--- a/big-data/big-data-capstone/project/data/beer_n_ARK Seoulite Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_ARK Seoulite Ale.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fonefan(70,890)
+          <t>fonefan(70,891)
 🇩🇰VestJylland, Denmark
 2.2September 8, 2018
 Can 500ml. @ [ (PBF XII Tasting.) by oh6gdx ] - Petalax, Finland.
@@ -866,7 +866,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>omhper(35,539)
+          <t>omhper(35,541)
 🇸🇪Tyresö, Sweden
 2.8July 7, 2018
 Canned at PBF XII.  Clear amber, small coarse head. Caramelly with light floral notes. Mid sweet with medium body and rounded mouthfeel. Mid bitter finish.
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEOULITE ALE</t>
+          <t>ARK Seoulite Ale</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/big-data/big-data-capstone/project/data/beer_n_ARK Seoulite Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_ARK Seoulite Ale.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 3.0March 20, 2020
 Other Korean finding among my online groceries. Pours copper, quite clear, frothy head and nice lacing. I would say that look is the best of this guy, which, besides being the can not even 2…
@@ -636,7 +636,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyobon(2,456)
+          <t>Pyobon(2,457)
 🇦🇺Sydney, Australia
 3.0November 14, 2019
 (Can) Pours clear amber brown with tiny white head. Vegetable aroma with hints of toffee; not very appealing. Medium body with bright carbonation. Plenty of flavour - dark toffee and…
@@ -707,7 +707,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>douglas88(12,575)
+          <t>douglas88(12,577)
 🇺🇸Portland, United States
 3.1July 10, 2019
 16 ounce can thanks to Maverick. Pours a clear yellow color with a medium white head. A light bready nose. Sweet lemons, toast, some fresh citrus. Solid.
@@ -846,7 +846,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,960)
 🇩🇰VestJylland, Denmark
 2.2September 8, 2018
 Can 500ml. @ [ (PBF XII Tasting.) by oh6gdx ] - Petalax, Finland.
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>omhper(35,541)
+          <t>omhper(35,614)
 🇸🇪Tyresö, Sweden
 2.8July 7, 2018
 Canned at PBF XII.  Clear amber, small coarse head. Caramelly with light floral notes. Mid sweet with medium body and rounded mouthfeel. Mid bitter finish.
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hermod(14,397)
+          <t>Hermod(14,474)
 🇫🇮Vantaa, Finland
 2.7July 7, 2018
 50cl can @ PBF XII.
